--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/1/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/1/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3123123123123123</v>
+        <v>0.8400840084008401</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1305.305305305305</v>
+        <v>449.2549254925493</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06296296296296297</v>
+        <v>0.09965996599659967</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6126126126126126</v>
+        <v>0.03800380038003801</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390.3903903903905</v>
+        <v>1687.798779877988</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.7257257257257</v>
+        <v>536.2736273627363</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.3463463463464</v>
+        <v>249.0765076507651</v>
       </c>
     </row>
   </sheetData>
